--- a/output/trabajo_final/tablas_desc.xlsx
+++ b/output/trabajo_final/tablas_desc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Github\diplomado-estadistica\output\trabajo_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DB1A7B-5910-4157-A7E0-027E1783D351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69429C7-69E9-4AEC-B782-C2A812377C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="5" xr2:uid="{9F93390F-9502-4A2E-A05F-B0B829016763}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="7" xr2:uid="{9F93390F-9502-4A2E-A05F-B0B829016763}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
     <sheet name="Hoja5" sheetId="5" r:id="rId5"/>
     <sheet name="Hoja6" sheetId="6" r:id="rId6"/>
+    <sheet name="Hoja7" sheetId="7" r:id="rId7"/>
+    <sheet name="Hoja8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="494">
   <si>
     <t xml:space="preserve">   N </t>
   </si>
@@ -1830,12 +1832,509 @@
   <si>
     <t>323.457 (71)</t>
   </si>
+  <si>
+    <t>Std. Err.</t>
+  </si>
+  <si>
+    <t>igualdad</t>
+  </si>
+  <si>
+    <t>.000</t>
+  </si>
+  <si>
+    <t>necesidad</t>
+  </si>
+  <si>
+    <t>equidad</t>
+  </si>
+  <si>
+    <t>derecho</t>
+  </si>
+  <si>
+    <t>sexo.rec</t>
+  </si>
+  <si>
+    <t>2.89</t>
+  </si>
+  <si>
+    <t>.004</t>
+  </si>
+  <si>
+    <t>universitaria.y.posgrado</t>
+  </si>
+  <si>
+    <t>-0.23</t>
+  </si>
+  <si>
+    <t>-3.97</t>
+  </si>
+  <si>
+    <t>tecnica.superior</t>
+  </si>
+  <si>
+    <t>-0.08</t>
+  </si>
+  <si>
+    <t>-1.25</t>
+  </si>
+  <si>
+    <t>.213</t>
+  </si>
+  <si>
+    <t>nsnr</t>
+  </si>
+  <si>
+    <t>-0.30</t>
+  </si>
+  <si>
+    <t>-0.55</t>
+  </si>
+  <si>
+    <t>.582</t>
+  </si>
+  <si>
+    <t>pertenece</t>
+  </si>
+  <si>
+    <t>1.53</t>
+  </si>
+  <si>
+    <t>.126</t>
+  </si>
+  <si>
+    <t>nsnr.2</t>
+  </si>
+  <si>
+    <t>.958</t>
+  </si>
+  <si>
+    <t>trabajo.en.la.ocupacion</t>
+  </si>
+  <si>
+    <t>.602</t>
+  </si>
+  <si>
+    <t>nsnr.3</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>.546</t>
+  </si>
+  <si>
+    <t>uno.o.dos</t>
+  </si>
+  <si>
+    <t>-2.02</t>
+  </si>
+  <si>
+    <t>.043</t>
+  </si>
+  <si>
+    <t>tres.o.mas</t>
+  </si>
+  <si>
+    <t>-0.77</t>
+  </si>
+  <si>
+    <t>.444</t>
+  </si>
+  <si>
+    <t>nsnr.4</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>.877</t>
+  </si>
+  <si>
+    <t>clase.media.baja</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>.365</t>
+  </si>
+  <si>
+    <t>clase.media.alta.o.alta</t>
+  </si>
+  <si>
+    <t>-1.54</t>
+  </si>
+  <si>
+    <t>.124</t>
+  </si>
+  <si>
+    <t>nsnr.5</t>
+  </si>
+  <si>
+    <t>-0.24</t>
+  </si>
+  <si>
+    <t>.211</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>.991</t>
+  </si>
+  <si>
+    <t>-1.32</t>
+  </si>
+  <si>
+    <t>.188</t>
+  </si>
+  <si>
+    <t>-1.74</t>
+  </si>
+  <si>
+    <t>.082</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>.571</t>
+  </si>
+  <si>
+    <t>2.48</t>
+  </si>
+  <si>
+    <t>.013</t>
+  </si>
+  <si>
+    <t>.971</t>
+  </si>
+  <si>
+    <t>-1.38</t>
+  </si>
+  <si>
+    <t>.168</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>.250</t>
+  </si>
+  <si>
+    <t>.803</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>.241</t>
+  </si>
+  <si>
+    <t>-0.27</t>
+  </si>
+  <si>
+    <t>-0.64</t>
+  </si>
+  <si>
+    <t>.522</t>
+  </si>
+  <si>
+    <t>-2.09</t>
+  </si>
+  <si>
+    <t>.037</t>
+  </si>
+  <si>
+    <t>-0.99</t>
+  </si>
+  <si>
+    <t>.322</t>
+  </si>
+  <si>
+    <t>.663</t>
+  </si>
+  <si>
+    <t>-0.17</t>
+  </si>
+  <si>
+    <t>-3.53</t>
+  </si>
+  <si>
+    <t>-0.85</t>
+  </si>
+  <si>
+    <t>.393</t>
+  </si>
+  <si>
+    <t>.479</t>
+  </si>
+  <si>
+    <t>-0.91</t>
+  </si>
+  <si>
+    <t>-1.71</t>
+  </si>
+  <si>
+    <t>.087</t>
+  </si>
+  <si>
+    <t>-0.71</t>
+  </si>
+  <si>
+    <t>.477</t>
+  </si>
+  <si>
+    <t>1.40</t>
+  </si>
+  <si>
+    <t>.161</t>
+  </si>
+  <si>
+    <t>.759</t>
+  </si>
+  <si>
+    <t>.575</t>
+  </si>
+  <si>
+    <t>-0.33</t>
+  </si>
+  <si>
+    <t>.741</t>
+  </si>
+  <si>
+    <t>.927</t>
+  </si>
+  <si>
+    <t>-0.47</t>
+  </si>
+  <si>
+    <t>.641</t>
+  </si>
+  <si>
+    <t>.636</t>
+  </si>
+  <si>
+    <t>-1.24</t>
+  </si>
+  <si>
+    <t>.214</t>
+  </si>
+  <si>
+    <t>-0.74</t>
+  </si>
+  <si>
+    <t>.460</t>
+  </si>
+  <si>
+    <t>-0.18</t>
+  </si>
+  <si>
+    <t>-3.57</t>
+  </si>
+  <si>
+    <t>-2.52</t>
+  </si>
+  <si>
+    <t>.012</t>
+  </si>
+  <si>
+    <t>.472</t>
+  </si>
+  <si>
+    <t>.744</t>
+  </si>
+  <si>
+    <t>-0.94</t>
+  </si>
+  <si>
+    <t>.345</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>.335</t>
+  </si>
+  <si>
+    <t>.805</t>
+  </si>
+  <si>
+    <t>-0.44</t>
+  </si>
+  <si>
+    <t>-0.98</t>
+  </si>
+  <si>
+    <t>.325</t>
+  </si>
+  <si>
+    <t>-0.51</t>
+  </si>
+  <si>
+    <t>.612</t>
+  </si>
+  <si>
+    <t>.431</t>
+  </si>
+  <si>
+    <t>.730</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>.544</t>
+  </si>
+  <si>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>.351</t>
+  </si>
+  <si>
+    <t>.398</t>
+  </si>
+  <si>
+    <t>Fit Indices</t>
+  </si>
+  <si>
+    <t>135.95(70)</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>TLI</t>
+  </si>
+  <si>
+    <t>Regresiones</t>
+  </si>
+  <si>
+    <t>Indices de Ajuste</t>
+  </si>
+  <si>
+    <t>Sexo (ref: Hombre)</t>
+  </si>
+  <si>
+    <r>
+      <t>χ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Fixed parameter</t>
+    </r>
+  </si>
+  <si>
+    <t>Educación (ref: Sin estudios o básica)</t>
+  </si>
+  <si>
+    <t>Actividad principal (ref: No trabaja en la ocupación)</t>
+  </si>
+  <si>
+    <t>Pertenencia pueblo originario (ref: No pertenece)</t>
+  </si>
+  <si>
+    <t>Cantidad de hijos (ref: Ninguno)</t>
+  </si>
+  <si>
+    <t>Clase autopercibida (ref: Clase baja)</t>
+  </si>
+  <si>
+    <t>Igualdad</t>
+  </si>
+  <si>
+    <t>Necesidad</t>
+  </si>
+  <si>
+    <t>Equidad</t>
+  </si>
+  <si>
+    <t>Derecho</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Universitaria/posgrado</t>
+  </si>
+  <si>
+    <t>Tecnica Superior</t>
+  </si>
+  <si>
+    <t>NSNR</t>
+  </si>
+  <si>
+    <t>Pertenece</t>
+  </si>
+  <si>
+    <t>Trabajo en la ocupación</t>
+  </si>
+  <si>
+    <t>Uno o dos</t>
+  </si>
+  <si>
+    <t>Tres o más</t>
+  </si>
+  <si>
+    <t>Clase media baja</t>
+  </si>
+  <si>
+    <t>Clase media alta o alta</t>
+  </si>
+  <si>
+    <t>-0.17***</t>
+  </si>
+  <si>
+    <t>0.14***</t>
+  </si>
+  <si>
+    <t>-0.23**</t>
+  </si>
+  <si>
+    <t>-0.11*</t>
+  </si>
+  <si>
+    <t>0.11**</t>
+  </si>
+  <si>
+    <t>-0.09*</t>
+  </si>
+  <si>
+    <t>-0.18***</t>
+  </si>
+  <si>
+    <t>-0.15**</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1869,6 +2368,27 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1878,7 +2398,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1937,11 +2457,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1977,6 +2528,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1989,24 +2549,98 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2348,7 +2982,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2362,7 +2996,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
@@ -2374,7 +3008,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="18" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -2388,7 +3022,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
@@ -2400,7 +3034,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -2412,7 +3046,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
@@ -2424,7 +3058,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
@@ -2436,7 +3070,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="18" t="s">
         <v>56</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2450,7 +3084,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
@@ -2462,7 +3096,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
@@ -2474,7 +3108,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="18" t="s">
         <v>57</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2488,7 +3122,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
@@ -2500,7 +3134,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="6" t="s">
         <v>25</v>
       </c>
@@ -2512,7 +3146,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="18" t="s">
         <v>58</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -2526,7 +3160,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="4" t="s">
         <v>29</v>
       </c>
@@ -2538,7 +3172,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="4" t="s">
         <v>31</v>
       </c>
@@ -2550,7 +3184,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="6" t="s">
         <v>33</v>
       </c>
@@ -2562,7 +3196,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="18" t="s">
         <v>59</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -2576,7 +3210,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="4" t="s">
         <v>7</v>
       </c>
@@ -2588,7 +3222,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
@@ -2600,7 +3234,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="4" t="s">
         <v>11</v>
       </c>
@@ -2612,7 +3246,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="6" t="s">
         <v>13</v>
       </c>
@@ -2624,7 +3258,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="18" t="s">
         <v>60</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -2638,7 +3272,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="4" t="s">
         <v>7</v>
       </c>
@@ -2650,7 +3284,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="4" t="s">
         <v>9</v>
       </c>
@@ -2662,7 +3296,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="4" t="s">
         <v>11</v>
       </c>
@@ -2674,7 +3308,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="6" t="s">
         <v>13</v>
       </c>
@@ -2686,7 +3320,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="18" t="s">
         <v>61</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -2700,7 +3334,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="4" t="s">
         <v>46</v>
       </c>
@@ -2712,7 +3346,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="4" t="s">
         <v>48</v>
       </c>
@@ -2724,7 +3358,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="6" t="s">
         <v>50</v>
       </c>
@@ -3254,21 +3888,21 @@
       <c r="O15" s="11"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
     </row>
     <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -4126,7 +4760,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:G24"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4436,10 +5070,10 @@
       <c r="A16" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="4" t="s">
         <v>258</v>
       </c>
     </row>
@@ -4476,7 +5110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D305641-CEC3-40BD-A38E-5E34DA606C20}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
@@ -4484,22 +5118,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="16" t="s">
         <v>323</v>
       </c>
     </row>
@@ -4518,7 +5152,7 @@
       <c r="A3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="15">
         <v>1000</v>
       </c>
       <c r="C3" s="7"/>
@@ -4535,13 +5169,13 @@
       <c r="A4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="15">
         <v>1089</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="15">
         <v>10818</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -4555,270 +5189,270 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="15">
         <v>9319</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="7" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="15">
         <v>1000</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="7" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="15">
         <v>1039</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="15">
         <v>11489</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="7" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="15">
         <v>1061</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="15">
         <v>11862</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="7" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="15">
         <v>1000</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="7" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="15">
         <v>9578</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="7" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="15">
         <v>9356</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="7" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="15">
         <v>10336</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="7" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="15">
         <v>1134</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="15">
         <v>10559</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="7" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="15">
         <v>1000</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="7" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="15">
         <v>1461</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="15">
         <v>8904</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="7" t="s">
         <v>319</v>
       </c>
     </row>
@@ -4832,7 +5466,7 @@
       <c r="C19" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="17">
         <v>6134</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -4846,15 +5480,15 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="15" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="4" t="s">
         <v>329</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -4862,7 +5496,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="4" t="s">
         <v>330</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -4870,7 +5504,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="6" t="s">
         <v>331</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -4885,4 +5519,1812 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9F9508-E6DF-460E-9AB9-55B9882DD93B}">
+  <dimension ref="A1:E80"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27"/>
+      <c r="B1" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>464</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>467</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>469</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>468</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>411</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="23"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="D68" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="E68" s="23" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="B70" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D71" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="E71" s="23" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>453</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D73" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="E73" s="23" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="B74" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D74" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="E74" s="23" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="23"/>
+      <c r="B75" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="B78" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+    </row>
+    <row r="80" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="26" t="s">
+        <v>466</v>
+      </c>
+      <c r="B80" s="26"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A25:B25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F52523F-F963-48E6-875F-C181D84A45B2}">
+  <dimension ref="A1:I71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32"/>
+      <c r="B1" s="33" t="s">
+        <v>472</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="34" t="s">
+        <v>473</v>
+      </c>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34" t="s">
+        <v>474</v>
+      </c>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34" t="s">
+        <v>475</v>
+      </c>
+      <c r="I1" s="34"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="51"/>
+      <c r="B2" s="41" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>336</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>336</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>336</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
+        <v>464</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="52" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>487</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>486</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>492</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="49" t="s">
+        <v>467</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
+        <v>477</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>488</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>493</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="52" t="s">
+        <v>478</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="52" t="s">
+        <v>479</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>353</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>416</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>373</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>435</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="B9" s="43"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="52" t="s">
+        <v>480</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>490</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="52" t="s">
+        <v>479</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="49" t="s">
+        <v>468</v>
+      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="52" t="s">
+        <v>481</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="52" t="s">
+        <v>479</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>397</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>446</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="49" t="s">
+        <v>470</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="52" t="s">
+        <v>482</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>489</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="52" t="s">
+        <v>483</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="52" t="s">
+        <v>479</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>373</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>403</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="G18" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="49" t="s">
+        <v>471</v>
+      </c>
+      <c r="B19" s="44"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="52" t="s">
+        <v>484</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>491</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="I20" s="37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="52" t="s">
+        <v>485</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="I21" s="37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="53" t="s">
+        <v>479</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>382</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="G22" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="I22" s="38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="36"/>
+      <c r="B23" s="39" t="s">
+        <v>458</v>
+      </c>
+      <c r="C23" s="39"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>459</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>460</v>
+      </c>
+      <c r="C25" s="36"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="36"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+    </row>
+    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B23:C23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>